--- a/Data/Processing/2024-02-02/KAJARIACER.xlsx
+++ b/Data/Processing/2024-02-02/KAJARIACER.xlsx
@@ -1016,7 +1016,7 @@
         <v>1079.46</v>
       </c>
       <c r="C10">
-        <v>1088.54</v>
+        <v>1088.55</v>
       </c>
       <c r="D10">
         <v>1071.71</v>
@@ -1037,7 +1037,7 @@
         <v>-0.5</v>
       </c>
       <c r="J10">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="K10">
         <v>-0.72</v>
